--- a/Results/Experimental_Results.xlsx
+++ b/Results/Experimental_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epameinondasdouros/Personal/Quantum/Code/Final_Project/Submision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBC1C9F7-03D7-C748-92B7-22DCE8943A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31191084-5BB2-0D46-A9E5-E5321F86174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="800" windowWidth="34560" windowHeight="20360" xr2:uid="{3CB169BA-FD97-9748-983B-44467DD283A5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" xr2:uid="{3CB169BA-FD97-9748-983B-44467DD283A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="56">
   <si>
     <t>Experiment 1</t>
   </si>
@@ -201,7 +201,10 @@
     <t>Experiment 6</t>
   </si>
   <si>
-    <t>Experiment 9</t>
+    <t xml:space="preserve">Experiment 9 NOISY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">default.mixed </t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -308,10 +311,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8420B3CF-BBA5-7D44-836C-D41BB86685C6}">
   <dimension ref="A6:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="89" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="J199" sqref="J199:J201"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="88" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="M178" sqref="M178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,14 +3983,14 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="H163">
-        <v>0.98799999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="I163">
         <v>0.99199999999999999</v>
       </c>
       <c r="J163" s="3">
         <f>(SUM(E163:I163)/5)*100</f>
-        <v>98.92</v>
+        <v>98.88</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
@@ -4034,14 +4034,14 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="H165">
-        <v>0.93</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="I165">
         <v>0.96</v>
       </c>
       <c r="J165" s="3">
         <f>(SUM(E165:I165)/5)*100</f>
-        <v>94</v>
+        <v>93.62</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
@@ -4282,17 +4282,17 @@
         <v>0.94</v>
       </c>
       <c r="H192">
-        <v>0.96</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="I192">
         <v>0.93300000000000005</v>
       </c>
       <c r="J192" s="3">
         <f>(SUM(E192:I192)/5)*100</f>
-        <v>94.699999999999989</v>
-      </c>
-    </row>
-    <row r="196" spans="2:31" x14ac:dyDescent="0.2">
+        <v>94.319999999999979</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="2" t="s">
         <v>1</v>
@@ -4305,12 +4305,12 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="198" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C199" s="5" t="s">
         <v>37</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>99.039999999999992</v>
       </c>
     </row>
-    <row r="200" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C200" s="5" t="s">
         <v>38</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>95.02</v>
       </c>
     </row>
-    <row r="201" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C201" s="6" t="s">
         <v>35</v>
       </c>
@@ -4391,12 +4391,12 @@
         <v>94.699999999999989</v>
       </c>
     </row>
-    <row r="202" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C202" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4407,212 +4407,31 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="208" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="X208" s="10"/>
-      <c r="Y208" s="10"/>
-      <c r="Z208" s="10"/>
-      <c r="AA208" s="10"/>
-      <c r="AB208" s="10"/>
-      <c r="AC208" s="10"/>
-      <c r="AD208" s="10"/>
-      <c r="AE208" s="10"/>
-    </row>
-    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="X209" s="10"/>
-      <c r="Y209" s="10"/>
-      <c r="Z209" s="10"/>
-      <c r="AA209" s="10"/>
-      <c r="AB209" s="10"/>
-      <c r="AC209" s="10"/>
-      <c r="AD209" s="10"/>
-      <c r="AE209" s="10"/>
-    </row>
-    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="X210" s="10"/>
-      <c r="Y210" s="10"/>
-      <c r="Z210" s="10"/>
-      <c r="AA210" s="10"/>
-      <c r="AB210" s="10"/>
-      <c r="AC210" s="10"/>
-      <c r="AD210" s="10"/>
-      <c r="AE210" s="10"/>
-    </row>
-    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
-      <c r="L211" s="10"/>
-      <c r="M211" s="10"/>
-      <c r="N211" s="10"/>
-      <c r="O211" s="10"/>
-      <c r="P211" s="10"/>
-      <c r="Q211" s="10"/>
-      <c r="X211" s="10"/>
-      <c r="Y211" s="10"/>
-      <c r="Z211" s="10"/>
-      <c r="AA211" s="10"/>
-      <c r="AB211" s="10"/>
-      <c r="AC211" s="10"/>
-      <c r="AD211" s="10"/>
-      <c r="AE211" s="10"/>
-    </row>
-    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-      <c r="K212" s="10"/>
-      <c r="L212" s="10"/>
-      <c r="M212" s="10"/>
-      <c r="N212" s="10"/>
-      <c r="O212" s="10"/>
-      <c r="P212" s="10"/>
-      <c r="Q212" s="10"/>
-      <c r="X212" s="10"/>
-      <c r="Y212" s="10"/>
-      <c r="Z212" s="10"/>
-      <c r="AA212" s="10"/>
-      <c r="AB212" s="10"/>
-      <c r="AC212" s="10"/>
-      <c r="AD212" s="10"/>
-      <c r="AE212" s="10"/>
-    </row>
-    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S213" s="10"/>
-      <c r="T213" s="10"/>
-      <c r="U213" s="10"/>
-      <c r="V213" s="10"/>
-      <c r="W213" s="10"/>
-      <c r="X213" s="10"/>
-      <c r="Y213" s="10"/>
-      <c r="Z213" s="10"/>
-      <c r="AA213" s="10"/>
-      <c r="AB213" s="10"/>
-      <c r="AC213" s="10"/>
-      <c r="AD213" s="10"/>
-      <c r="AE213" s="10"/>
-    </row>
-    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S214" s="10"/>
-      <c r="T214" s="10"/>
-      <c r="U214" s="10"/>
-      <c r="V214" s="12"/>
-      <c r="W214" s="10"/>
-      <c r="X214" s="10"/>
-      <c r="Y214" s="10"/>
-      <c r="Z214" s="10"/>
-      <c r="AA214" s="10"/>
-      <c r="AB214" s="10"/>
-      <c r="AC214" s="10"/>
-      <c r="AD214" s="10"/>
-      <c r="AE214" s="10"/>
-    </row>
-    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S215" s="10"/>
-      <c r="T215" s="10"/>
-      <c r="U215" s="10"/>
-      <c r="V215" s="10"/>
-      <c r="W215" s="10"/>
-      <c r="X215" s="10"/>
-      <c r="Y215" s="10"/>
-      <c r="Z215" s="10"/>
-      <c r="AA215" s="10"/>
-      <c r="AB215" s="10"/>
-      <c r="AC215" s="10"/>
-      <c r="AD215" s="10"/>
-      <c r="AE215" s="10"/>
-    </row>
-    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S216" s="10"/>
-      <c r="T216" s="10"/>
-      <c r="U216" s="10"/>
-      <c r="V216" s="10"/>
-      <c r="W216" s="10"/>
-      <c r="X216" s="10"/>
-      <c r="Y216" s="10"/>
-      <c r="Z216" s="10"/>
-      <c r="AA216" s="10"/>
-      <c r="AB216" s="10"/>
-      <c r="AC216" s="10"/>
-      <c r="AD216" s="10"/>
-      <c r="AE216" s="10"/>
-    </row>
-    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S217" s="10"/>
-      <c r="T217" s="10"/>
-      <c r="U217" s="10"/>
-      <c r="V217" s="11"/>
-      <c r="W217" s="10"/>
-      <c r="X217" s="10"/>
-      <c r="Y217" s="10"/>
-      <c r="Z217" s="10"/>
-      <c r="AA217" s="10"/>
-      <c r="AB217" s="10"/>
-      <c r="AC217" s="10"/>
-      <c r="AD217" s="10"/>
-      <c r="AE217" s="10"/>
-    </row>
-    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S218" s="10"/>
-      <c r="T218" s="10"/>
-      <c r="U218" s="10"/>
-      <c r="V218" s="13"/>
-      <c r="W218" s="10"/>
-      <c r="X218" s="10"/>
-      <c r="Y218" s="10"/>
-      <c r="Z218" s="10"/>
-      <c r="AA218" s="10"/>
-      <c r="AB218" s="10"/>
-      <c r="AC218" s="10"/>
-      <c r="AD218" s="10"/>
-      <c r="AE218" s="10"/>
-    </row>
-    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S219" s="10"/>
-      <c r="T219" s="10"/>
-      <c r="U219" s="10"/>
-      <c r="V219" s="11"/>
-      <c r="W219" s="10"/>
-      <c r="X219" s="10"/>
-      <c r="Y219" s="10"/>
-      <c r="Z219" s="10"/>
-      <c r="AA219" s="10"/>
-      <c r="AB219" s="10"/>
-      <c r="AC219" s="10"/>
-      <c r="AD219" s="10"/>
-      <c r="AE219" s="10"/>
-    </row>
-    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V214" s="10"/>
+    </row>
+    <row r="217" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V217" s="5"/>
+    </row>
+    <row r="218" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V218" s="6"/>
+    </row>
+    <row r="219" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V219" s="5"/>
+    </row>
+    <row r="220" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C220" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="S220" s="10"/>
-      <c r="T220" s="10"/>
-      <c r="U220" s="10"/>
-      <c r="V220" s="11"/>
-      <c r="W220" s="10"/>
-      <c r="X220" s="10"/>
-      <c r="Y220" s="10"/>
-      <c r="Z220" s="10"/>
-      <c r="AA220" s="10"/>
-      <c r="AB220" s="10"/>
-      <c r="AC220" s="10"/>
-      <c r="AD220" s="10"/>
-      <c r="AE220" s="10"/>
-    </row>
-    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="V220" s="5"/>
+    </row>
+    <row r="221" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F221" s="9" t="s">
         <v>50</v>
@@ -4626,36 +4445,8 @@
       <c r="I221" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S221" s="10"/>
-      <c r="T221" s="10"/>
-      <c r="U221" s="10"/>
-      <c r="V221" s="10"/>
-      <c r="W221" s="10"/>
-      <c r="X221" s="10"/>
-      <c r="Y221" s="10"/>
-      <c r="Z221" s="10"/>
-      <c r="AA221" s="10"/>
-      <c r="AB221" s="10"/>
-      <c r="AC221" s="10"/>
-      <c r="AD221" s="10"/>
-      <c r="AE221" s="10"/>
-    </row>
-    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S222" s="10"/>
-      <c r="T222" s="10"/>
-      <c r="U222" s="10"/>
-      <c r="V222" s="10"/>
-      <c r="W222" s="10"/>
-      <c r="X222" s="10"/>
-      <c r="Y222" s="10"/>
-      <c r="Z222" s="10"/>
-      <c r="AA222" s="10"/>
-      <c r="AB222" s="10"/>
-      <c r="AC222" s="10"/>
-      <c r="AD222" s="10"/>
-      <c r="AE222" s="10"/>
-    </row>
-    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C223">
         <v>3</v>
       </c>
@@ -4671,21 +4462,8 @@
       <c r="H223" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S223" s="10"/>
-      <c r="T223" s="10"/>
-      <c r="U223" s="10"/>
-      <c r="V223" s="10"/>
-      <c r="W223" s="10"/>
-      <c r="X223" s="10"/>
-      <c r="Y223" s="10"/>
-      <c r="Z223" s="10"/>
-      <c r="AA223" s="10"/>
-      <c r="AB223" s="10"/>
-      <c r="AC223" s="10"/>
-      <c r="AD223" s="10"/>
-      <c r="AE223" s="10"/>
-    </row>
-    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -4693,21 +4471,8 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
-      <c r="S224" s="10"/>
-      <c r="T224" s="10"/>
-      <c r="U224" s="10"/>
-      <c r="V224" s="10"/>
-      <c r="W224" s="10"/>
-      <c r="X224" s="10"/>
-      <c r="Y224" s="10"/>
-      <c r="Z224" s="10"/>
-      <c r="AA224" s="10"/>
-      <c r="AB224" s="10"/>
-      <c r="AC224" s="10"/>
-      <c r="AD224" s="10"/>
-      <c r="AE224" s="10"/>
-    </row>
-    <row r="225" spans="2:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>3</v>
       </c>
@@ -4730,21 +4495,8 @@
         <f>100*SUM(E225:G225)/3</f>
         <v>98.199999999999989</v>
       </c>
-      <c r="S225" s="10"/>
-      <c r="T225" s="10"/>
-      <c r="U225" s="10"/>
-      <c r="V225" s="10"/>
-      <c r="W225" s="10"/>
-      <c r="X225" s="10"/>
-      <c r="Y225" s="10"/>
-      <c r="Z225" s="10"/>
-      <c r="AA225" s="10"/>
-      <c r="AB225" s="10"/>
-      <c r="AC225" s="10"/>
-      <c r="AD225" s="10"/>
-      <c r="AE225" s="10"/>
-    </row>
-    <row r="226" spans="2:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C226" s="5" t="s">
         <v>24</v>
       </c>
@@ -4764,21 +4516,8 @@
         <f t="shared" ref="H226:H227" si="0">100*SUM(E226:G226)/3</f>
         <v>81.533333333333317</v>
       </c>
-      <c r="S226" s="10"/>
-      <c r="T226" s="10"/>
-      <c r="U226" s="10"/>
-      <c r="V226" s="10"/>
-      <c r="W226" s="10"/>
-      <c r="X226" s="10"/>
-      <c r="Y226" s="10"/>
-      <c r="Z226" s="10"/>
-      <c r="AA226" s="10"/>
-      <c r="AB226" s="10"/>
-      <c r="AC226" s="10"/>
-      <c r="AD226" s="10"/>
-      <c r="AE226" s="10"/>
-    </row>
-    <row r="227" spans="2:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
         <v>17</v>
       </c>
@@ -4795,66 +4534,8 @@
         <f t="shared" si="0"/>
         <v>88.533333333333346</v>
       </c>
-      <c r="S227" s="10"/>
-      <c r="T227" s="10"/>
-      <c r="U227" s="10"/>
-      <c r="V227" s="10"/>
-      <c r="W227" s="10"/>
-      <c r="X227" s="10"/>
-      <c r="Y227" s="10"/>
-      <c r="Z227" s="10"/>
-      <c r="AA227" s="10"/>
-      <c r="AB227" s="10"/>
-      <c r="AC227" s="10"/>
-      <c r="AD227" s="10"/>
-      <c r="AE227" s="10"/>
-    </row>
-    <row r="228" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S228" s="10"/>
-      <c r="T228" s="10"/>
-      <c r="U228" s="10"/>
-      <c r="V228" s="10"/>
-      <c r="W228" s="10"/>
-      <c r="X228" s="10"/>
-      <c r="Y228" s="10"/>
-      <c r="Z228" s="10"/>
-      <c r="AA228" s="10"/>
-      <c r="AB228" s="10"/>
-      <c r="AC228" s="10"/>
-      <c r="AD228" s="10"/>
-      <c r="AE228" s="10"/>
-    </row>
-    <row r="229" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S229" s="10"/>
-      <c r="T229" s="10"/>
-      <c r="U229" s="10"/>
-      <c r="V229" s="10"/>
-      <c r="W229" s="10"/>
-      <c r="X229" s="10"/>
-      <c r="Y229" s="10"/>
-      <c r="Z229" s="10"/>
-      <c r="AA229" s="10"/>
-      <c r="AB229" s="10"/>
-      <c r="AC229" s="10"/>
-      <c r="AD229" s="10"/>
-      <c r="AE229" s="10"/>
-    </row>
-    <row r="230" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S230" s="10"/>
-      <c r="T230" s="10"/>
-      <c r="U230" s="10"/>
-      <c r="V230" s="10"/>
-      <c r="W230" s="10"/>
-      <c r="X230" s="10"/>
-      <c r="Y230" s="10"/>
-      <c r="Z230" s="10"/>
-      <c r="AA230" s="10"/>
-      <c r="AB230" s="10"/>
-      <c r="AC230" s="10"/>
-      <c r="AD230" s="10"/>
-      <c r="AE230" s="10"/>
-    </row>
-    <row r="231" spans="2:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="2" t="s">
         <v>1</v>
@@ -4864,21 +4545,8 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
-      <c r="S231" s="10"/>
-      <c r="T231" s="10"/>
-      <c r="U231" s="10"/>
-      <c r="V231" s="10"/>
-      <c r="W231" s="10"/>
-      <c r="X231" s="10"/>
-      <c r="Y231" s="10"/>
-      <c r="Z231" s="10"/>
-      <c r="AA231" s="10"/>
-      <c r="AB231" s="10"/>
-      <c r="AC231" s="10"/>
-      <c r="AD231" s="10"/>
-      <c r="AE231" s="10"/>
-    </row>
-    <row r="234" spans="2:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>4</v>
       </c>
@@ -4902,7 +4570,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="235" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C235" s="6" t="s">
         <v>35</v>
       </c>
@@ -4923,7 +4591,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="236" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C236" s="5" t="s">
         <v>24</v>
       </c>
@@ -4944,7 +4612,7 @@
         <v>89.333333333333329</v>
       </c>
     </row>
-    <row r="237" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>

--- a/Results/Experimental_Results.xlsx
+++ b/Results/Experimental_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epameinondasdouros/Personal/Quantum/Code/Final_Project/Submision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31191084-5BB2-0D46-A9E5-E5321F86174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0F6DB-9436-1847-802D-BAB757BE6181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" xr2:uid="{3CB169BA-FD97-9748-983B-44467DD283A5}"/>
   </bookViews>
@@ -1722,7 +1722,7 @@
   <dimension ref="A6:AF237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" zoomScale="88" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="M178" sqref="M178"/>
+      <selection activeCell="N175" sqref="N175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,14 +3983,14 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="H163">
-        <v>0.98599999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="I163">
         <v>0.99199999999999999</v>
       </c>
       <c r="J163" s="3">
         <f>(SUM(E163:I163)/5)*100</f>
-        <v>98.88</v>
+        <v>98.759999999999991</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
@@ -4228,14 +4228,14 @@
         <v>0.98899999999999999</v>
       </c>
       <c r="H190">
-        <v>0.99299999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="I190">
         <v>0.98699999999999999</v>
       </c>
       <c r="J190" s="3">
         <f>(SUM(E190:I190)/5)*100</f>
-        <v>99.02</v>
+        <v>98.960000000000008</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.2">
@@ -4321,20 +4321,20 @@
         <v>0.99</v>
       </c>
       <c r="F199">
-        <v>0.99199999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="G199">
         <v>0.99199999999999999</v>
       </c>
       <c r="H199">
-        <v>0.98899999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="I199">
         <v>0.98899999999999999</v>
       </c>
       <c r="J199" s="3">
         <f>(SUM(E199:I199)/5)*100</f>
-        <v>99.039999999999992</v>
+        <v>99.16</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.2">

--- a/Results/Experimental_Results.xlsx
+++ b/Results/Experimental_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epameinondasdouros/Personal/Quantum/Code/Final_Project/Submision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0F6DB-9436-1847-802D-BAB757BE6181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C60F47-AAEB-5643-9064-3EE13A00B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" xr2:uid="{3CB169BA-FD97-9748-983B-44467DD283A5}"/>
   </bookViews>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8420B3CF-BBA5-7D44-836C-D41BB86685C6}">
   <dimension ref="A6:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="88" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="N175" sqref="N175"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,14 +3983,14 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="H163">
-        <v>0.98</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="I163">
         <v>0.99199999999999999</v>
       </c>
       <c r="J163" s="3">
         <f>(SUM(E163:I163)/5)*100</f>
-        <v>98.759999999999991</v>
+        <v>98.92</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
@@ -4034,14 +4034,14 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="H165">
-        <v>0.91100000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="I165">
         <v>0.96</v>
       </c>
       <c r="J165" s="3">
         <f>(SUM(E165:I165)/5)*100</f>
-        <v>93.62</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
@@ -4228,14 +4228,14 @@
         <v>0.98899999999999999</v>
       </c>
       <c r="H190">
-        <v>0.99</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="I190">
         <v>0.98699999999999999</v>
       </c>
       <c r="J190" s="3">
         <f>(SUM(E190:I190)/5)*100</f>
-        <v>98.960000000000008</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.2">
@@ -4276,20 +4276,20 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="F192">
-        <v>0.95799999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="G192">
         <v>0.94</v>
       </c>
       <c r="H192">
-        <v>0.94099999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="I192">
         <v>0.93300000000000005</v>
       </c>
       <c r="J192" s="3">
         <f>(SUM(E192:I192)/5)*100</f>
-        <v>94.319999999999979</v>
+        <v>94.339999999999989</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.2">
@@ -4321,20 +4321,20 @@
         <v>0.99</v>
       </c>
       <c r="F199">
-        <v>0.99399999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G199">
         <v>0.99199999999999999</v>
       </c>
       <c r="H199">
-        <v>0.99299999999999999</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="I199">
         <v>0.98899999999999999</v>
       </c>
       <c r="J199" s="3">
         <f>(SUM(E199:I199)/5)*100</f>
-        <v>99.16</v>
+        <v>99.039999999999992</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.2">

--- a/Results/Experimental_Results.xlsx
+++ b/Results/Experimental_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epameinondasdouros/Personal/Quantum/Code/Final_Project/Submision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C60F47-AAEB-5643-9064-3EE13A00B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2126B86-E767-CA40-85B6-B6047E574FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" xr2:uid="{3CB169BA-FD97-9748-983B-44467DD283A5}"/>
   </bookViews>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8420B3CF-BBA5-7D44-836C-D41BB86685C6}">
   <dimension ref="A6:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M169" sqref="M169"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="112" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3977,7 +3977,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="F163">
-        <v>0.98899999999999999</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G163">
         <v>0.98499999999999999</v>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="J163" s="3">
         <f>(SUM(E163:I163)/5)*100</f>
-        <v>98.92</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
@@ -4028,16 +4028,16 @@
         <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.93700000000000006</v>
+        <v>0.95</v>
       </c>
       <c r="G165">
-        <v>0.91300000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="H165">
         <v>0.91</v>
       </c>
       <c r="I165">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J165" s="3">
         <f>(SUM(E165:I165)/5)*100</f>
@@ -4282,14 +4282,14 @@
         <v>0.94</v>
       </c>
       <c r="H192">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I192">
-        <v>0.93300000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="J192" s="3">
         <f>(SUM(E192:I192)/5)*100</f>
-        <v>94.339999999999989</v>
+        <v>94.47999999999999</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.2">
@@ -4321,7 +4321,7 @@
         <v>0.99</v>
       </c>
       <c r="F199">
-        <v>0.99199999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="G199">
         <v>0.99199999999999999</v>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="J199" s="3">
         <f>(SUM(E199:I199)/5)*100</f>
-        <v>99.039999999999992</v>
+        <v>99.06</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.2">
@@ -4384,11 +4384,11 @@
         <v>0.94299999999999995</v>
       </c>
       <c r="I201">
-        <v>0.93700000000000006</v>
+        <v>0.94</v>
       </c>
       <c r="J201" s="3">
         <f>(SUM(E201:I201)/5)*100</f>
-        <v>94.699999999999989</v>
+        <v>94.759999999999991</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.2">

--- a/Results/Experimental_Results.xlsx
+++ b/Results/Experimental_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epameinondasdouros/Personal/Quantum/Code/Final_Project/Submision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2126B86-E767-CA40-85B6-B6047E574FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35CCF58-BB5E-144D-9629-26651245880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" xr2:uid="{3CB169BA-FD97-9748-983B-44467DD283A5}"/>
   </bookViews>
@@ -1721,7 +1721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8420B3CF-BBA5-7D44-836C-D41BB86685C6}">
   <dimension ref="A6:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="112" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="112" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
